--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_03_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_03_end.xlsx
@@ -1416,7 +1416,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="녹슨 구리의 기사"]  좋아, 네 오른손이 아직 떨어져 나가지 않은 것에 감사해라…… 어차피 잠시 뒤엔 없어질 테니까
+    <t xml:space="preserve">[name="녹슨 구리의 기사"]  좋아, 네 오른손이 아직 떨어져 나가지 않은 것에 감사해라…… 어차피 잠시 뒤엔 없어질 테니까.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_03_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_03_end.xlsx
@@ -996,11 +996,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  This is the most destructive match the Roar Arena has seen this event—! The Butcher of the Field! “Brassrust” Ingra!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Just last month, at the season’s first event, poor “Foehn” got absolutely decimated when the “Brassrust” kept pummeling him until all of his limbs were crushed!
+    <t xml:space="preserve">[name="Greatmouth Mob"]  This is the most destructive match the Roar Arena has seen this event—! The Butcher of the Field! 'Brassrust' Ingra!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Just last month, at the season’s first event, poor 'Foehn' got absolutely decimated when the 'Brassrust' kept pummeling him until all of his limbs were crushed!
 </t>
   </si>
   <si>
@@ -1012,7 +1012,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Just like that! “Brassrust” Ingra! Smear the battlefield with your opponent’s blood!  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Just like that! 'Brassrust' Ingra! Smear the battlefield with your opponent’s blood!  
 </t>
   </si>
   <si>
@@ -1176,7 +1176,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> “To be a knight is to be the noble light that illuminates the land...” 
+    <t xml:space="preserve"> 'To be a knight is to be the noble light that illuminates the land...' 
 </t>
   </si>
   <si>
@@ -1388,7 +1388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  ...This one has a pretty name. Let’s go with this one, the "Thorn Tear."
+    <t xml:space="preserve">[name="Platinum"]  ...This one has a pretty name. Let’s go with this one, the 'Thorn Tear.'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_03_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_03_end.xlsx
@@ -960,11 +960,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Brassrust Knight"]  Very well, I’ll let you keep your right hand for just a little longer... Just a little longer.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  (—These aren’t tears... It’s sticky... Is it blood?) 
+    <t xml:space="preserve">[name="Brassrust Knight"]  Very well, I'll let you keep your right hand for just a little longer... Just a little longer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  (—These aren't tears... It's sticky... Is it blood?) 
 </t>
   </si>
   <si>
@@ -972,11 +972,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  (My heart’s beating way too fast... I...)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Brassrust Knight"]  Pathetic. The way you swing your weapon is no better than those clowns knocking at the knightly orders' doors. It’s laughable.
+    <t xml:space="preserve">[name="Maria"]  (My heart's beating way too fast... I...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brassrust Knight"]  Pathetic. The way you swing your weapon is no better than those clowns knocking at the knightly orders' doors. It's laughable.
 </t>
   </si>
   <si>
@@ -984,7 +984,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  I... I’m not going to lose!
+    <t xml:space="preserve">[name="Maria"]  I... I'm not going to lose!
 </t>
   </si>
   <si>
@@ -992,7 +992,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Ingra! He’s chasing her like a storm! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Ingra! He's chasing her like a storm! 
 </t>
   </si>
   <si>
@@ -1000,11 +1000,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Just last month, at the season’s first event, poor 'Foehn' got absolutely decimated when the 'Brassrust' kept pummeling him until all of his limbs were crushed!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  You heard that right! He pummeled with his bare hands! That’s definitely not the kind of thing you’d expect a knight carrying a giant axe to do! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Just last month, at the season's first event, poor 'Foehn' got absolutely decimated when the 'Brassrust' kept pummeling him until all of his limbs were crushed!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  You heard that right! He pummeled with his bare hands! That's definitely not the kind of thing you'd expect a knight carrying a giant axe to do! 
 </t>
   </si>
   <si>
@@ -1012,7 +1012,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Just like that! 'Brassrust' Ingra! Smear the battlefield with your opponent’s blood!  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Just like that! 'Brassrust' Ingra! Smear the battlefield with your opponent's blood!  
 </t>
   </si>
   <si>
@@ -1028,7 +1028,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  It’s one match! There are other chances to score the points you need—! 
+    <t xml:space="preserve">[name="Zofia"]  It's one match! There are other chances to score the points you need—! 
 </t>
   </si>
   <si>
@@ -1040,7 +1040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I can’t hear you... I feel dizzy... My shield feels so heavy...
+    <t xml:space="preserve">I can't hear you... I feel dizzy... My shield feels so heavy...
 </t>
   </si>
   <si>
@@ -1060,15 +1060,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Brassrust Knight"]  But it’ll be no fun if we end this so quickly. I’ll smear your blood all over that irritating face... the Radiant Knight’s face!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  We both know... you’re at your limit too.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Brassrust Knight"]  Hah! A little blood’s not going to stop me! 
+    <t xml:space="preserve">[name="Brassrust Knight"]  But it'll be no fun if we end this so quickly. I'll smear your blood all over that irritating face... the Radiant Knight's face!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  We both know... you're at your limit too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brassrust Knight"]  Hah! A little blood's not going to stop me! 
 </t>
   </si>
   <si>
@@ -1076,11 +1076,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  Well... I didn’t expect Ingra to join the fray so soon...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  The National Council let him go early. Hmph, it’s like the whole trial was just a sham.
+    <t xml:space="preserve">[name="??? "]  Well... I didn't expect Ingra to join the fray so soon...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  The National Council let him go early. Hmph, it's like the whole trial was just a sham.
 </t>
   </si>
   <si>
@@ -1088,15 +1088,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  Uh huh... the Rose Paper Union’s full of money anyway.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  It really pisses me off. They’re raking in money manipulating public opinion, and other unscrupulous means. That commentator even dared to talk about it openly in a public event.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  That just says they aren’t afraid.
+    <t xml:space="preserve">[name="??? "]  Uh huh... the Rose Paper Union's full of money anyway.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  It really pisses me off. They're raking in money manipulating public opinion, and other unscrupulous means. That commentator even dared to talk about it openly in a public event.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  That just says they aren't afraid.
 </t>
   </si>
   <si>
@@ -1104,39 +1104,39 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  Well, they have us to be afraid of. Ingra’s a bad loser, and I’ll absolutely destroy him.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  Come on, didn’t we agree to let me fight him?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  Before that... If the young Nearl doesn’t come up with an idea soon, she won’t make it out of this in one piece.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  —Her blood is still in her body! Maria Nearl is much more stubborn than any of us could’ve thought! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  What are you waiting for? Doesn’t a knight like her just tear at your heartstrings?! Don’t forget! Thanks to the generosity of the good-hearted souls at Roar Guards Company, this season’s commission fee is just half the normal rate!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  —Hold on! Something’s happening here! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  The two of them are at a standoff, but Maria’s laid down her shield! What is happening here?! Is she hoping to take on Ingra’s giant axe with that fragile sword of hers?!   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  There’s an enormous difference in both size and power! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  I can’t emphasize this enough—! Commission’s half off! Isn’t this act of courage worth a few dozen gold coins?!   
+    <t xml:space="preserve">[name="??? "]  Well, they have us to be afraid of. Ingra's a bad loser, and I'll absolutely destroy him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  Come on, didn't we agree to let me fight him?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  Before that... If the young Nearl doesn't come up with an idea soon, she won't make it out of this in one piece.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  —Her blood is still in her body! Maria Nearl is much more stubborn than any of us could've thought! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  What are you waiting for? Doesn't a knight like her just tear at your heartstrings?! Don't forget! Thanks to the generosity of the good-hearted souls at Roar Guards Company, this season's commission fee is just half the normal rate!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  —Hold on! Something's happening here! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  The two of them are at a standoff, but Maria's laid down her shield! What is happening here?! Is she hoping to take on Ingra's giant axe with that fragile sword of hers?!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  There's an enormous difference in both size and power! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  I can't emphasize this enough—! Commission's half off! Isn't this act of courage worth a few dozen gold coins?!   
 </t>
   </si>
   <si>
@@ -1148,7 +1148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Brassrust Knight"]  Ha, excellent! I’ll rip your arms out, and gag you with your own flesh— 
+    <t xml:space="preserve">[name="Brassrust Knight"]  Ha, excellent! I'll rip your arms out, and gag you with your own flesh— 
 </t>
   </si>
   <si>
@@ -1160,15 +1160,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I don’t need my shield... I can’t block his axe...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He’s hurt too, but he doesn’t care... He’s like a monster, and he enjoys killing...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How should I... face an enemy like him... An enemy? Isn’t he a knight?
+    <t xml:space="preserve">I don't need my shield... I can't block his axe...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He's hurt too, but he doesn't care... He's like a monster, and he enjoys killing...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How should I... face an enemy like him... An enemy? Isn't he a knight?
 </t>
   </si>
   <si>
@@ -1216,19 +1216,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  I-I see. Phew... That’s good—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  It’s not good! You’re hurt! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  You should’ve forfeited the match, going up against an opponent like that! It’s just a single match! There are so many ways for us to get those points back!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  If you just want to get a title and keep your family’s nobility, there’s no reason to go that far—
+    <t xml:space="preserve">[name="Maria"]  I-I see. Phew... That's good—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  It's not good! You're hurt! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  You should've forfeited the match, going up against an opponent like that! It's just a single match! There are so many ways for us to get those points back!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  If you just want to get a title and keep your family's nobility, there's no reason to go that far—
 </t>
   </si>
   <si>
@@ -1244,15 +1244,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  ...He’s really strong, but...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  He’s not like the other knights. He comes from an insanely well-off family, and he’s only in the competition to hurt people. He lives for it. That’s the kind of man Olmer Ingra is. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Maria, if you get hurt like this again, I won’t let you fight anymore.
+    <t xml:space="preserve">[name="Maria"]  ...He's really strong, but...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  He's not like the other knights. He comes from an insanely well-off family, and he's only in the competition to hurt people. He lives for it. That's the kind of man Olmer Ingra is. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Maria, if you get hurt like this again, I won't let you fight anymore.
 </t>
   </si>
   <si>
@@ -1268,11 +1268,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Don’t move so much. Get some rest.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  That match ended in a draw, but you’ll have more and more companies trying to woo you... Marcin and I will turn them down for now. Try to rest up and get better.
+    <t xml:space="preserve">[name="Zofia"]  Don't move so much. Get some rest.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  That match ended in a draw, but you'll have more and more companies trying to woo you... Marcin and I will turn them down for now. Try to rest up and get better.
 </t>
   </si>
   <si>
@@ -1280,11 +1280,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Oh... What’s that sword?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  ...That’s the sword I used to carry. I dug it out while you were training the other day. 
+    <t xml:space="preserve">[name="Maria"]  Oh... What's that sword?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  ...That's the sword I used to carry. I dug it out while you were training the other day. 
 </t>
   </si>
   <si>
@@ -1292,7 +1292,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  (Even though Zofia’s already...)
+    <t xml:space="preserve">[name="Maria"]  (Even though Zofia's already...)
 </t>
   </si>
   <si>
@@ -1300,15 +1300,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  But if something bad happens to you because of him, I’ll kill him personally, even if it means I’ll have to face the National Council.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Y-You’re way overthinking it...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  ...Can I see it? It kinda looks like it hasn’t been used in a while. 
+    <t xml:space="preserve">[name="Zofia"]  But if something bad happens to you because of him, I'll kill him personally, even if it means I'll have to face the National Council.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Y-You're way overthinking it...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  ...Can I see it? It kinda looks like it hasn't been used in a while. 
 </t>
   </si>
   <si>
@@ -1324,15 +1324,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Please, Zofia! Auntie! I won’t ask for anything else! I’ll be good and rest up!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  *Sigh*... You’re becoming more and more like your sister...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Take it. Don’t you do anything weird with it. I’m quite fond of it.
+    <t xml:space="preserve">[name="Maria"]  Please, Zofia! Auntie! I won't ask for anything else! I'll be good and rest up!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  *Sigh*... You're becoming more and more like your sister...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Take it. Don't you do anything weird with it. I'm quite fond of it.
 </t>
   </si>
   <si>
@@ -1340,7 +1340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  That’s the proof that I treasure it!
+    <t xml:space="preserve">[name="Zofia"]  That's the proof that I treasure it!
 </t>
   </si>
   <si>
@@ -1348,7 +1348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  We’re going to pay Maria a visit.
+    <t xml:space="preserve">[name="Old Knight"]  We're going to pay Maria a visit.
 </t>
   </si>
   <si>
@@ -1360,19 +1360,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Well, I can’t just sit around and do nothing! Did you see that last swing Ingra took at her? What happens if that comes back to haunt her?  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  We’ve got an old knight and an old craftsman here. There’s bound to be something we can do to help.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  What if you run into Młynar instead? Do you think he won’t throw you two out the door? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  ...That prick wouldn’t dare do that to us when his old man was still around, and I know when to run if it comes to it!
+    <t xml:space="preserve">[name="Old Craftsman"]  Well, I can't just sit around and do nothing! Did you see that last swing Ingra took at her? What happens if that comes back to haunt her?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  We've got an old knight and an old craftsman here. There's bound to be something we can do to help.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  What if you run into Młynar instead? Do you think he won't throw you two out the door? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  ...That prick wouldn't dare do that to us when his old man was still around, and I know when to run if it comes to it!
 </t>
   </si>
   <si>
@@ -1380,7 +1380,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Welcome. It’s been a while since we've had such a beauty in here. What can I get you?
+    <t xml:space="preserve">[name="Bald Marcin"]  Welcome. It's been a while since we've had such a beauty in here. What can I get you?
 </t>
   </si>
   <si>
@@ -1388,7 +1388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  ...This one has a pretty name. Let’s go with this one, the 'Thorn Tear.'
+    <t xml:space="preserve">[name="Platinum"]  ...This one has a pretty name. Let's go with this one, the 'Thorn Tear.'
 </t>
   </si>
   <si>
